--- a/public/assets/templates/excels/products-list.xlsx
+++ b/public/assets/templates/excels/products-list.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$2:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$2:$F$37</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Danh sách sản phẩm</t>
   </si>
@@ -52,19 +52,127 @@
     <t>iPhone 14 Pro 128GB Chính hãng VN/A</t>
   </si>
   <si>
-    <t>iPhone 14 Plus 128GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>iPhone 14 128GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max 512GB</t>
+    <t>iPhone 14 128GB chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>iPhone 14 512GB chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>iPhone 14 Plus 256GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max 256GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max 1TB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro 256GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold4 12GB/256GB Chính hãng</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A73 5G 8GB/128GB Chính Hãng</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 Ultra 5G 8GB/256GB chính hãng</t>
+  </si>
+  <si>
+    <t>Xiaomi 11T 8/128GB Chính Hãng</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Xiaomi 12T Pro 12GB/256GB Chính hãng</t>
+  </si>
+  <si>
+    <t>Redmi K60 8GB/256GB Chính hãng</t>
+  </si>
+  <si>
+    <t>Oppo Reno6 Z 5G 8GB/128GB chính hãng</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Macbook Air M2 8GB/256GB Chính Hãng</t>
   </si>
   <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>Samsung Galaxy S21</t>
+    <t>Macbook Pro 13&amp;quot; M2 8GB/256GB chính hãng</t>
+  </si>
+  <si>
+    <t>MacBook Pro 16 inch M1 Pro 16GB/1TB Chính hãng</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 256GB 2020</t>
+  </si>
+  <si>
+    <t>MacBook Pro 16 inch M1 Max 32GB/1TB Chính hãng</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 16GB/256GB Chính hãng</t>
+  </si>
+  <si>
+    <t>iPad Air 4 10.9 64GB Wifi/4G 2020 – Chính hãng</t>
+  </si>
+  <si>
+    <t>Máy tính bảng</t>
+  </si>
+  <si>
+    <t>iPad Gen 10 64GB 5G Chính hãng</t>
+  </si>
+  <si>
+    <t>iPad Air 5 256GB 5G-WIFI-M1 2022</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S8 Chính hãng</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S8 Plus Chính hãng</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S8 Ultra 2022 Chính hãng</t>
+  </si>
+  <si>
+    <t>Tai nghe chống ồn BWOO DPOD MAX (BW45)</t>
+  </si>
+  <si>
+    <t>Phụ kiện</t>
+  </si>
+  <si>
+    <t>BWOO Việt Nam</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
+  </si>
+  <si>
+    <t>Tai nghe bluetooth Xiaomi Redmi Buds 3</t>
+  </si>
+  <si>
+    <t>Tai Nghe Bluetooth Apple AirPods 3 - Chính Hãng</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 8 GPS + Cellular 45mm Viền thép dây thép | Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 8 GPS 41mm Viền nhôm dây cao su | Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 6 40mm LTE - Viền nhôm dây cao su – Chính hãng</t>
+  </si>
+  <si>
+    <t>Apple Watch SE 44mm 4G - Viền nhôm dây cao su – Chính hãng VN/A</t>
   </si>
 </sst>
 </file>
@@ -448,10 +556,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>38765894.0</v>
+        <v>27300000.0</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -512,13 +620,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>34567821.0</v>
+        <v>24990000.0</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -532,13 +640,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>30567821.0</v>
+        <v>19590000.0</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
@@ -552,13 +660,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>29567821.0</v>
+        <v>24790000.0</v>
       </c>
       <c r="D6" s="4">
         <v>100</v>
@@ -572,19 +680,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>37567821.0</v>
+        <v>25190000.0</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
@@ -592,29 +700,609 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30990000.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>103</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9"/>
+      <c r="C9" s="3">
+        <v>41290000.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>25490000.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30990000.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9590000.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22990000.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9590000.0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>80</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16990000.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9190000.0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8190000.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>28990000.0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32490000.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>68590000.0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18750000.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4">
+        <v>89990000.0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3">
+        <v>26990000.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15890000.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14890000.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4">
+        <v>19990000.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <v>18990000.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20990000.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3">
+        <v>25990000.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4">
+        <v>790000.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5699000.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4">
+        <v>739000.0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4190000.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9990000.0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9690000.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6990000.0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6690000.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="F38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F8"/>
+  <autoFilter ref="A2:F37"/>
   <mergeCells>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
